--- a/Equipos de trabajo.xlsx
+++ b/Equipos de trabajo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Equipo 1-TIENDA</t>
   </si>
@@ -60,6 +60,9 @@
     <t>Estefania Arenas</t>
   </si>
   <si>
+    <t>Suárez Páez Jennsi Dayana</t>
+  </si>
+  <si>
     <t>Jhonatan Hoffmann</t>
   </si>
   <si>
@@ -70,6 +73,9 @@
   </si>
   <si>
     <t>Anyela Franco</t>
+  </si>
+  <si>
+    <t>Juan Diego Delgado</t>
   </si>
   <si>
     <t>Oscar Vasquez</t>
@@ -79,9 +85,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -100,19 +112,43 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -355,55 +391,64 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5">
-      <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="1"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>

--- a/Equipos de trabajo.xlsx
+++ b/Equipos de trabajo.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TRABAJO\BIT\CICLO FEBRERO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C25730-6FE8-48EB-8101-A14FAEC5963E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F75A4DC-5684-4847-8C4A-08E608199BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Grupos" sheetId="1" r:id="rId1"/>
     <sheet name="Sustentación-mongo" sheetId="2" r:id="rId2"/>
     <sheet name="Clases" sheetId="3" r:id="rId3"/>
+    <sheet name="Apis" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
   <si>
     <t>Equipo 1-TIENDA</t>
   </si>
@@ -125,14 +126,20 @@
     <t>https://drive.google.com/file/d/1tSVl5JXaoj8pdTnELsF0AWLBWkP9EhNg/view</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1v0Ogz8xW24l5FPMq-XEOwtLCmLMvCjzR/view</t>
+    <t>https://docs.google.com/spreadsheets/d/1iFwKIbAq9aa-by9iE-59r7r8MGzUhuE3/edit#gid=1664479696</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1wRKnvelUny7_mAOvuc7Zqy7OG90_NuYw/view</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,7 +151,17 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
@@ -155,7 +172,12 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF1155CC"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0563C1"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -194,17 +216,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,7 +445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -481,7 +504,7 @@
       <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -498,18 +521,18 @@
       <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="5"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1504,9 +1527,7 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1564,7 +1585,7 @@
       <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1581,38 +1602,39 @@
       <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="5"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="4" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
@@ -1621,31 +1643,67 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="106.109375" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>31</v>
       </c>
+      <c r="B1" s="6">
+        <v>44649</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="B2" s="6"/>
+    </row>
+    <row r="3" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="6">
+        <v>44651</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
+    </row>
+    <row r="7" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="A2" location="Clases!A1" display="https://docs.google.com/spreadsheets/d/1iFwKIbAq9aa-by9iE-59r7r8MGzUhuE3/edit#gid=1664479696" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88F80335-8818-428E-885A-8AA7239AE512}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Equipos de trabajo.xlsx
+++ b/Equipos de trabajo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TRABAJO\BIT\CICLO FEBRERO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BEF0D26-2AFC-42DA-A027-F13C8957FCDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8847FE9A-4651-417D-B00A-78C0AD960610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
   <si>
     <t>Equipo 1-TIENDA</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1f8-LSOE68eo1QI-_vtmPOPinQ1uSe4nV/view</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1gNqa6sae3RMGdmqoFAJ81o8csuS504mQ/view</t>
   </si>
 </sst>
 </file>
@@ -186,14 +189,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0563C1"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -231,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -242,10 +245,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1685,7 +1687,7 @@
       <c r="A2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="8"/>
+      <c r="B2" s="6"/>
     </row>
     <row r="3" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
@@ -1701,20 +1703,25 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="6">
         <v>44656</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="9" t="s">
         <v>36</v>
+      </c>
+      <c r="B6" s="10">
+        <v>44657</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
+      <c r="A7" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Equipos de trabajo.xlsx
+++ b/Equipos de trabajo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TRABAJO\BIT\CICLO FEBRERO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730B03D3-E30E-418C-AB21-BFAB9C591021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0DD42C-AB4B-49DE-8EC8-9DF006C26629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
   <si>
     <t>Equipo 1-TIENDA</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/17a8SriuTnhw3nLkwtgKW8uMxsXRF0gFn/view</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1BsA_fybEhApenMFMkrSf2_HFuJCi6MMv/view</t>
   </si>
 </sst>
 </file>
@@ -154,7 +157,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +198,18 @@
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF1155CC"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -231,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -242,8 +257,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1659,10 +1676,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1723,8 +1740,16 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="10" t="s">
         <v>38</v>
+      </c>
+      <c r="B8" s="11">
+        <v>44669</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1734,6 +1759,7 @@
     <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
     <hyperlink ref="A4" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
     <hyperlink ref="A5" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="A8" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/Equipos de trabajo.xlsx
+++ b/Equipos de trabajo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TRABAJO\BIT\CICLO FEBRERO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0DD42C-AB4B-49DE-8EC8-9DF006C26629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CE0807-E98C-44F0-BDDA-8B40D2197B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Grupos" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
   <si>
     <t>Equipo 1-TIENDA</t>
   </si>
@@ -148,6 +148,12 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1BsA_fybEhApenMFMkrSf2_HFuJCi6MMv/view</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1D2WcYH2cITuR_7sSFykolJV1lR08pE5e/view</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/13CWkhw5eebO1QGRlIdwjKa2bwbpdAKhB/view</t>
   </si>
 </sst>
 </file>
@@ -157,7 +163,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,12 +202,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF1155CC"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -246,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -259,8 +259,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,7 +477,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1676,10 +1677,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1740,16 +1741,32 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="6">
         <v>44669</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="10" t="s">
         <v>39</v>
+      </c>
+      <c r="B9" s="6">
+        <v>44670</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="6">
+        <v>44671</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Equipos de trabajo.xlsx
+++ b/Equipos de trabajo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TRABAJO\BIT\CICLO FEBRERO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CE0807-E98C-44F0-BDDA-8B40D2197B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F078457-B78F-4EDF-8634-0F53F7E4EFE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -478,7 +478,7 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Equipos de trabajo.xlsx
+++ b/Equipos de trabajo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
   <si>
     <t>Equipo 1-TIENDA</t>
   </si>
@@ -145,9 +145,6 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/13CWkhw5eebO1QGRlIdwjKa2bwbpdAKhB/view</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1jHcUbPMA-Z54NQ5BXvkbySL8l2F5eVQv/view</t>
   </si>
 </sst>
 </file>
@@ -1771,12 +1768,15 @@
       </c>
     </row>
     <row r="12" ht="15.0" customHeight="1">
-      <c r="A12" s="10" t="s">
-        <v>42</v>
-      </c>
       <c r="B12" s="11">
         <v>44676.0</v>
       </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="11"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Equipos de trabajo.xlsx
+++ b/Equipos de trabajo.xlsx
@@ -84,7 +84,7 @@
     <t>https://meet.google.com/byo-bvzo-etp</t>
   </si>
   <si>
-    <t>https://meet.google.com/dcw-ucpa-gpy</t>
+    <t>https://meet.google.com/hde-ygju-skn</t>
   </si>
   <si>
     <t>https://meet.google.com/izk-edgn-cqw</t>
